--- a/Report.xlsx
+++ b/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>Language</t>
   </si>
@@ -123,12 +123,6 @@
   </si>
   <si>
     <t>Support Available for First Country</t>
-  </si>
-  <si>
-    <t>NA Payroll</t>
-  </si>
-  <si>
-    <t>NA Onboarding</t>
   </si>
   <si>
     <t>Support Available for Second Country</t>
@@ -377,7 +371,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,37 +429,37 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -535,11 +529,6 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
         <v>33</v>
       </c>
     </row>
@@ -550,7 +539,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -558,7 +547,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -704,11 +693,6 @@
     <row r="30">
       <c r="A30" t="s" s="0">
         <v>32</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>Language</t>
   </si>
@@ -539,7 +539,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -695,6 +695,11 @@
         <v>32</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
